--- a/static/db/narratives_db.xlsx
+++ b/static/db/narratives_db.xlsx
@@ -1,109 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nirkon/free_dev/IssarVideos/static/db/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45600511-18EA-E341-8800-6FA3C13583A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-43200" yWindow="-2400" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="wild" sheetId="1" r:id="rId1"/>
+    <sheet name="wild" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Test Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Integration Test" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
-  <si>
-    <t>Narrative</t>
-  </si>
-  <si>
-    <t>Story</t>
-  </si>
-  <si>
-    <t>Tagger_1</t>
-  </si>
-  <si>
-    <t>Tagger_1_Result</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>Positive body image</t>
-  </si>
-  <si>
-    <t>A young woman sees her reflection in the mirror transform as she recalls negative and positive comments from her past, ultimately choosing to embrace her unique beauty.</t>
-  </si>
-  <si>
-    <t>Nir Kon</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WWTRwj9t-vU</t>
-  </si>
-  <si>
-    <t>A tattoo artist captures the personal stories of clients by creating artworks that symbolize their journey to self-love and body acceptance.</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/89546048</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@username/video/1234567890</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@tattooartist123/video/1234567890</t>
-  </si>
-  <si>
-    <t>Career, Entrepreneurship &amp; Finance</t>
-  </si>
-  <si>
-    <t>Follow a diverse group of individuals who form an early morning club to tackle personal goals before sunrise, highlighting their dedication and the impact on their success.</t>
-  </si>
-  <si>
-    <t>Rami</t>
-  </si>
-  <si>
-    <t>https://www.dailymotion.com/video/x94hz4s</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/groups/191120/videos/284958348</t>
-  </si>
-  <si>
-    <t>A day-in-the-life of a food truck chef who rises before dawn to prep, showing the dedication and passion that drives his business and the loyal customers who appreciate it.</t>
-  </si>
-  <si>
-    <t>https://www.dailymotion.com/video/x8zlhs2</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -118,43 +48,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -442,146 +422,440 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Narrative</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Story</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Tagger_1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tagger_1_Result</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Positive body image</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>A young woman sees her reflection in the mirror transform as she recalls negative and positive comments from her past, ultimately choosing to embrace her unique beauty.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Nir Kon</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=WWTRwj9t-vU</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Positive body image</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>A tattoo artist captures the personal stories of clients by creating artworks that symbolize their journey to self-love and body acceptance.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Nir Kon</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://vimeo.com/89546048</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Positive body image</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>A young woman sees her reflection in the mirror transform as she recalls negative and positive comments from her past, ultimately choosing to embrace her unique beauty.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Nir Kon</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@username/video/1234567890</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Positive body image</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>A tattoo artist captures the personal stories of clients by creating artworks that symbolize their journey to self-love and body acceptance.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@tattooartist123/video/1234567890</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Career, Entrepreneurship &amp; Finance</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Follow a diverse group of individuals who form an early morning club to tackle personal goals before sunrise, highlighting their dedication and the impact on their success.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Rami</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://www.dailymotion.com/video/x94hz4s</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Career, Entrepreneurship &amp; Finance</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Follow a diverse group of individuals who form an early morning club to tackle personal goals before sunrise, highlighting their dedication and the impact on their success.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Rami</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://vimeo.com/groups/191120/videos/284958348</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Career, Entrepreneurship &amp; Finance</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>A day-in-the-life of a food truck chef who rises before dawn to prep, showing the dedication and passion that drives his business and the loyal customers who appreciate it.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Rami</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://www.dailymotion.com/video/x8zlhs2</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Narrative</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Story</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Tagger_1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tagger_1_Result</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Test narrative for comprehensive testing</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Test story content</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://example.com/test-video-1749316131</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Test narrative for comprehensive testing</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Test story content</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://example.com/test-video-comprehensive</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Test narrative for comprehensive testing</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Test story content</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://example.com/test-video-1749316205</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Test narrative for comprehensive testing</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Test story content</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://example.com/test-video-1749316276</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Narrative</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Story</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Tagger_1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tagger_1_Result</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Integration test narrative</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Integration test story</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://example.com/integration-test-1749316131</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Integration test narrative</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Integration test story</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://example.com/integration-test-1749316205</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Integration test narrative</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Integration test story</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://example.com/integration-test-1749316276</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/static/db/narratives_db.xlsx
+++ b/static/db/narratives_db.xlsx
@@ -10,6 +10,10 @@
     <sheet name="wild" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Test Sheet" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Integration Test" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Test Topic Add Narrative" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Duplicate Test Topic" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Test Topic" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="ssss" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -644,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -694,7 +698,7 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://example.com/test-video-1749316131</t>
+          <t>https://example.com/test-video-1749324268</t>
         </is>
       </c>
     </row>
@@ -732,7 +736,7 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://example.com/test-video-1749316205</t>
+          <t>https://example.com/test-video-1749324338</t>
         </is>
       </c>
     </row>
@@ -751,7 +755,216 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://example.com/test-video-1749316276</t>
+          <t>https://example.com/test-video-1749324427</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Test narrative for comprehensive testing</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Test story content</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://example.com/test-video-1749324483</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Test narrative for comprehensive testing</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Test story content</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://example.com/test-video-1749324740</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Test narrative for comprehensive testing</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Test story content</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://example.com/test-video-1749324853</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Test narrative for comprehensive testing</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Test story content</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://example.com/test-video-1749324872</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Test narrative for comprehensive testing</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Test story content</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://example.com/test-video-1749325030</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Test narrative for comprehensive testing</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Test story content</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://example.com/test-video-1749325581</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Test narrative for comprehensive testing</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Test story content</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://example.com/test-video-1749325633</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Test narrative for comprehensive testing</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Test story content</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://example.com/test-video-1749326680</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Test narrative for comprehensive testing</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Test story content</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://example.com/test-video-1749326742</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Test narrative for comprehensive testing</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Test story content</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://example.com/test-video-1749326937</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Test narrative for comprehensive testing</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Test story content</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://example.com/test-video-1749326999</t>
         </is>
       </c>
     </row>
@@ -766,7 +979,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -816,7 +1029,7 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://example.com/integration-test-1749316131</t>
+          <t>https://example.com/integration-test-1749324268</t>
         </is>
       </c>
     </row>
@@ -835,7 +1048,7 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://example.com/integration-test-1749316205</t>
+          <t>https://example.com/integration-test-1749324338</t>
         </is>
       </c>
     </row>
@@ -854,7 +1067,848 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://example.com/integration-test-1749316276</t>
+          <t>https://example.com/integration-test-1749324427</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Integration test narrative</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Integration test story</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://example.com/integration-test-1749324483</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Integration test narrative</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Integration test story</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Nir Kon</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://example.com/integration-test-1749324741</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Integration test narrative</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Integration test story</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://example.com/integration-test-1749324853</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Integration test narrative</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Integration test story</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://example.com/integration-test-1749324872</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Integration test narrative</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Integration test story</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://example.com/integration-test-1749325031</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Integration test narrative</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Integration test story</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://example.com/integration-test-1749325581</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Integration test narrative</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Integration test story</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://example.com/integration-test-1749325633</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Integration test narrative</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Integration test story</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://example.com/integration-test-1749326680</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Integration test narrative</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Integration test story</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://example.com/integration-test-1749326742</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Integration test narrative</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Integration test story</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://example.com/integration-test-1749326937</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Integration test narrative</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Integration test story</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://example.com/integration-test-1749326999</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Narrative</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Story</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Tagger_1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tagger_1_Result</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Test narrative for add endpoint</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>This is a test story for the add narrative endpoint functionality</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://example.com/test-add-narrative-9109683475687634795</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Test narrative for add endpoint</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>This is a test story for the add narrative endpoint functionality</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://example.com/test-add-narrative-8875983319858039013</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Test narrative for add endpoint</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>This is a test story for the add narrative endpoint functionality</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://example.com/test-add-narrative--4022726412704695955</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Test narrative for add endpoint</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>This is a test story for the add narrative endpoint functionality</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://example.com/test-add-narrative-2693365805858967044</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Test narrative for add endpoint</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>This is a test story for the add narrative endpoint functionality</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://example.com/test-add-narrative--4196134297481682363</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Test narrative for add endpoint</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>This is a test story for the add narrative endpoint functionality</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://example.com/test-add-narrative-1222646142236062237</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Test narrative for add endpoint</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>This is a test story for the add narrative endpoint functionality</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://example.com/test-add-narrative-7843454298559033762</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Test narrative for add endpoint</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>This is a test story for the add narrative endpoint functionality</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://example.com/test-add-narrative-3999583981817640447</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Test narrative for add endpoint</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>This is a test story for the add narrative endpoint functionality</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://example.com/test-add-narrative--1694519282609914268</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Test narrative for add endpoint</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>This is a test story for the add narrative endpoint functionality</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://example.com/test-add-narrative--2610078888296625328</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Narrative</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Story</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Tagger_1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tagger_1_Result</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Duplicate test narrative</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Test story for duplicate link test</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://example.com/duplicate-test-link</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Narrative</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Story</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Tagger_1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tagger_1_Result</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Test narrative</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Test story</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>not-a-url</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Test narrative</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Test story</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ftp://example.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Test narrative</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Test story</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Test narrative</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Test story</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Test narrative</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Test story</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Test narrative</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Test story</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Test narrative</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Test story</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Test add narrative functionality</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>This is a comprehensive test of the add narrative endpoint</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://example.com/test-add-narrative-endpoint</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Test narrative</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Test story</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Narrative</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Story</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Tagger_1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tagger_1_Result</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sadasda</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>fdgdfvvsseee</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>http://localhost:8000/tagging-management544354353</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sadasda</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>dsfadsfsadfa</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>http://localhost:8000/tagging-managementdfsdfsd</t>
         </is>
       </c>
     </row>

--- a/static/db/narratives_db.xlsx
+++ b/static/db/narratives_db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nirkon/free_dev/IssarVideos/static/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2B92D8-A46E-D240-874C-68DFC562E86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698570EB-76D7-884B-8561-32DEAED64129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-42960" yWindow="-3960" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-41240" yWindow="-3540" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Health" sheetId="1" r:id="rId1"/>
@@ -518,7 +518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -726,7 +726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
